--- a/09-01-24 to 09-07-24 Madison Schedule.xlsx
+++ b/09-01-24 to 09-07-24 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA57"/>
+  <dimension ref="A1:AA58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Driver 1/2
+          <t>Driver 1/2,
 Corolla</t>
         </is>
       </c>
@@ -2807,12 +2807,12 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Keshawn</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>Driver, Camry 3</t>
+          <t>1st Day</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
@@ -2874,10 +2874,15 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Driver, Camry 3,
+Trainer</t>
+        </is>
+      </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
@@ -2948,14 +2953,10 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Casey</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
@@ -3022,7 +3023,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Curt</t>
+          <t>Casey</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -3088,7 +3089,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Curt</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -3153,7 +3154,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -3223,7 +3224,7 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -3280,13 +3281,12 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>@ Store,
-2nd Scan</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
@@ -3334,12 +3334,13 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+2nd Scan</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
@@ -3387,13 +3388,12 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
@@ -3429,12 +3429,13 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="T54" t="inlineStr"/>
@@ -3470,7 +3471,7 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -3515,7 +3516,7 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -3560,7 +3561,7 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
@@ -3577,6 +3578,47 @@
       <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="inlineStr"/>
     </row>
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
